--- a/Testes_Geoespaciais/dataset_DW.xlsx
+++ b/Testes_Geoespaciais/dataset_DW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Estudos Academicos\Ciencia de Dados\Comunidade DS\AMC - Análise Geoespacial\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Estudos Academicos\Ciencia de Dados\Comunidade DS\Testes_Geoespaciais\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CFDCE9-A810-48B6-BE62-F9DA9899F6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761B169-38AF-47A6-90FD-59F577E9E67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-90" windowWidth="13290" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados_tratados" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="189">
   <si>
     <t>Endereco</t>
   </si>
@@ -530,6 +530,63 @@
   </si>
   <si>
     <t>-47.5290804</t>
+  </si>
+  <si>
+    <t>EMEF Prof.a Vilma Fernandes Antônio</t>
+  </si>
+  <si>
+    <t>E.M.E.F Coronel Esmédio</t>
+  </si>
+  <si>
+    <t>EMEF Prof.a Zilda Tomé de Moraes</t>
+  </si>
+  <si>
+    <t>EMEF Prof. Antônio de Pádua Martins de Melo</t>
+  </si>
+  <si>
+    <t>EMEF Prof. Domingos de Marco</t>
+  </si>
+  <si>
+    <t>E.M.E.F Vereador Carlos</t>
+  </si>
+  <si>
+    <t>EMEF Prof.a Luiza Carvalho Pires</t>
+  </si>
+  <si>
+    <t>-23.21183887480501</t>
+  </si>
+  <si>
+    <t>-47.52215580544201</t>
+  </si>
+  <si>
+    <t>-23.231516883620642</t>
+  </si>
+  <si>
+    <t>-47.52282892063827</t>
+  </si>
+  <si>
+    <t>-23.22093830494942</t>
+  </si>
+  <si>
+    <t>-47.51859655983879</t>
+  </si>
+  <si>
+    <t>-23.199115454065343</t>
+  </si>
+  <si>
+    <t>-47.52185023317993</t>
+  </si>
+  <si>
+    <t>-16.72328986847957</t>
+  </si>
+  <si>
+    <t>-49.36700122560869</t>
+  </si>
+  <si>
+    <t>-23.208011513280848</t>
+  </si>
+  <si>
+    <t>-47.51291045792688</t>
   </si>
 </sst>
 </file>
@@ -588,10 +645,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,27 +960,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -928,10 +992,10 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -942,10 +1006,10 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -956,10 +1020,10 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -970,10 +1034,10 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -984,10 +1048,10 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -998,10 +1062,10 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1012,10 +1076,10 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1026,10 +1090,10 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1040,10 +1104,10 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1054,10 +1118,10 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1068,10 +1132,10 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1082,10 +1146,10 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1096,10 +1160,10 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1110,10 +1174,10 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1124,10 +1188,10 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1138,10 +1202,10 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1152,10 +1216,10 @@
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1166,10 +1230,10 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1180,10 +1244,10 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1194,10 +1258,10 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1208,10 +1272,10 @@
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1222,10 +1286,10 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1236,10 +1300,10 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1250,10 +1314,10 @@
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1264,10 +1328,10 @@
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1278,10 +1342,10 @@
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1292,10 +1356,10 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1306,10 +1370,10 @@
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1320,10 +1384,10 @@
       <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1334,10 +1398,10 @@
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1348,10 +1412,10 @@
       <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1362,10 +1426,10 @@
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1376,10 +1440,10 @@
       <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1390,10 +1454,10 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1404,10 +1468,10 @@
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1418,10 +1482,10 @@
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1432,10 +1496,10 @@
       <c r="B38" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1446,10 +1510,10 @@
       <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1460,10 +1524,10 @@
       <c r="B40" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1474,10 +1538,10 @@
       <c r="B41" t="s">
         <v>28</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1488,10 +1552,10 @@
       <c r="B42" t="s">
         <v>28</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1502,10 +1566,10 @@
       <c r="B43" t="s">
         <v>28</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1516,10 +1580,10 @@
       <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1530,10 +1594,10 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1544,10 +1608,10 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1558,10 +1622,10 @@
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1572,10 +1636,10 @@
       <c r="B48" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1586,10 +1650,10 @@
       <c r="B49" t="s">
         <v>32</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1600,10 +1664,10 @@
       <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1614,10 +1678,10 @@
       <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1628,10 +1692,10 @@
       <c r="B52" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1642,10 +1706,10 @@
       <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1656,10 +1720,10 @@
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1670,10 +1734,10 @@
       <c r="B55" t="s">
         <v>36</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1684,10 +1748,10 @@
       <c r="B56" t="s">
         <v>36</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1698,10 +1762,10 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1712,10 +1776,10 @@
       <c r="B58" t="s">
         <v>38</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1726,10 +1790,10 @@
       <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1740,10 +1804,10 @@
       <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1754,10 +1818,10 @@
       <c r="B61" t="s">
         <v>40</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1768,10 +1832,10 @@
       <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1782,10 +1846,10 @@
       <c r="B63" t="s">
         <v>42</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1796,10 +1860,10 @@
       <c r="B64" t="s">
         <v>42</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1810,10 +1874,10 @@
       <c r="B65" t="s">
         <v>42</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1824,10 +1888,10 @@
       <c r="B66" t="s">
         <v>42</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1838,10 +1902,10 @@
       <c r="B67" t="s">
         <v>43</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1852,10 +1916,10 @@
       <c r="B68" t="s">
         <v>44</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1866,10 +1930,10 @@
       <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1880,10 +1944,10 @@
       <c r="B70" t="s">
         <v>46</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1894,10 +1958,10 @@
       <c r="B71" t="s">
         <v>46</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1908,10 +1972,10 @@
       <c r="B72" t="s">
         <v>47</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1922,10 +1986,10 @@
       <c r="B73" t="s">
         <v>48</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1936,10 +2000,10 @@
       <c r="B74" t="s">
         <v>49</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1950,10 +2014,10 @@
       <c r="B75" t="s">
         <v>50</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1964,10 +2028,10 @@
       <c r="B76" t="s">
         <v>51</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1978,10 +2042,10 @@
       <c r="B77" t="s">
         <v>52</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1992,10 +2056,10 @@
       <c r="B78" t="s">
         <v>52</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2006,10 +2070,10 @@
       <c r="B79" t="s">
         <v>53</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>0</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2020,10 +2084,10 @@
       <c r="B80" t="s">
         <v>54</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2034,10 +2098,10 @@
       <c r="B81" t="s">
         <v>55</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2048,10 +2112,10 @@
       <c r="B82" t="s">
         <v>55</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2062,10 +2126,10 @@
       <c r="B83" t="s">
         <v>56</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2076,10 +2140,10 @@
       <c r="B84" t="s">
         <v>57</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2090,10 +2154,10 @@
       <c r="B85" t="s">
         <v>57</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2104,10 +2168,10 @@
       <c r="B86" t="s">
         <v>58</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2118,12 +2182,119 @@
       <c r="B87" t="s">
         <v>59</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="3">
+        <v>-23.185715112352302</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-47.536629439990698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testes_Geoespaciais/dataset_DW.xlsx
+++ b/Testes_Geoespaciais/dataset_DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Estudos Academicos\Ciencia de Dados\Comunidade DS\Testes_Geoespaciais\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5460CA27-6462-4B6E-B2DE-AE78B4607CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBFE61-65E4-46BD-AEA4-1B9CA8032590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Endereco</t>
   </si>
@@ -257,450 +257,6 @@
   </si>
   <si>
     <t>R. Walter Castelucci, 16</t>
-  </si>
-  <si>
-    <t>-23.203445764246673</t>
-  </si>
-  <si>
-    <t>-23.191864918718004</t>
-  </si>
-  <si>
-    <t>-23.202126972450603</t>
-  </si>
-  <si>
-    <t>-23.19074612007928</t>
-  </si>
-  <si>
-    <t>-23.195645382596</t>
-  </si>
-  <si>
-    <t>-23.193087883997187</t>
-  </si>
-  <si>
-    <t>-23.18472919574882</t>
-  </si>
-  <si>
-    <t>-23.193567537188287</t>
-  </si>
-  <si>
-    <t>-23.222842219496055</t>
-  </si>
-  <si>
-    <t>-23.219892084923597</t>
-  </si>
-  <si>
-    <t>-23.220043743567157</t>
-  </si>
-  <si>
-    <t>-23.22344978883554</t>
-  </si>
-  <si>
-    <t>-23.224534982752616</t>
-  </si>
-  <si>
-    <t>-23.220085783870395</t>
-  </si>
-  <si>
-    <t>-23.202966798177492</t>
-  </si>
-  <si>
-    <t>-23.194351975794532</t>
-  </si>
-  <si>
-    <t>-23.185001569258272</t>
-  </si>
-  <si>
-    <t>-23.199530141866717</t>
-  </si>
-  <si>
-    <t>-23.220495857220925</t>
-  </si>
-  <si>
-    <t>-23.218541939144913</t>
-  </si>
-  <si>
-    <t>-23.218808951034728</t>
-  </si>
-  <si>
-    <t>-23.19298423490335</t>
-  </si>
-  <si>
-    <t>-23.224034887207573</t>
-  </si>
-  <si>
-    <t>-23.187465461038485</t>
-  </si>
-  <si>
-    <t>-23.2225714261696</t>
-  </si>
-  <si>
-    <t>-23.22181950867785</t>
-  </si>
-  <si>
-    <t>-23.217521199809262</t>
-  </si>
-  <si>
-    <t>-23.218066451077057</t>
-  </si>
-  <si>
-    <t>-23.217827655004985</t>
-  </si>
-  <si>
-    <t>-23.217106586150823</t>
-  </si>
-  <si>
-    <t>-23.191977292259732</t>
-  </si>
-  <si>
-    <t>-23.21722822774638</t>
-  </si>
-  <si>
-    <t>-23.217407686245735</t>
-  </si>
-  <si>
-    <t>-23.182672979149118</t>
-  </si>
-  <si>
-    <t>-23.18904701512886</t>
-  </si>
-  <si>
-    <t>-23.194540728048644</t>
-  </si>
-  <si>
-    <t>-23.189766087074872</t>
-  </si>
-  <si>
-    <t>-23.221122248115936</t>
-  </si>
-  <si>
-    <t>-23.221914887971508</t>
-  </si>
-  <si>
-    <t>-23.191762120695998</t>
-  </si>
-  <si>
-    <t>-23.187677240450135</t>
-  </si>
-  <si>
-    <t>-23.20219586788036</t>
-  </si>
-  <si>
-    <t>-23.189287548784176</t>
-  </si>
-  <si>
-    <t>-23.185444252427185</t>
-  </si>
-  <si>
-    <t>-23.18410697914797</t>
-  </si>
-  <si>
-    <t>-23.189866647072424</t>
-  </si>
-  <si>
-    <t>-23.221664467150784</t>
-  </si>
-  <si>
-    <t>-23.190202878408815</t>
-  </si>
-  <si>
-    <t>-23.223626358065744</t>
-  </si>
-  <si>
-    <t>-23.193133032349845</t>
-  </si>
-  <si>
-    <t>-23.217484315143817</t>
-  </si>
-  <si>
-    <t>-23.220942830793394</t>
-  </si>
-  <si>
-    <t>-23.187194508451302</t>
-  </si>
-  <si>
-    <t>-23.187113560899483</t>
-  </si>
-  <si>
-    <t>3-47.522386754229</t>
-  </si>
-  <si>
-    <t>-23.198392650656576</t>
-  </si>
-  <si>
-    <t>-23.192863111420866</t>
-  </si>
-  <si>
-    <t>-23.20086046676542</t>
-  </si>
-  <si>
-    <t>-23.19115090377141</t>
-  </si>
-  <si>
-    <t>-23.192627486816363</t>
-  </si>
-  <si>
-    <t>-23.19291551044732</t>
-  </si>
-  <si>
-    <t>-23.197596616023016</t>
-  </si>
-  <si>
-    <t>-23.19659074306941</t>
-  </si>
-  <si>
-    <t>-23.180839622853256</t>
-  </si>
-  <si>
-    <t>-23.22227965795992</t>
-  </si>
-  <si>
-    <t>-23.222362241476638</t>
-  </si>
-  <si>
-    <t>-23.195448602659386</t>
-  </si>
-  <si>
-    <t>-23.198118782740558</t>
-  </si>
-  <si>
-    <t>-23.194101104258447</t>
-  </si>
-  <si>
-    <t>-23.201466594404515</t>
-  </si>
-  <si>
-    <t>-23.18923548468667</t>
-  </si>
-  <si>
-    <t>-23.2214426914307</t>
-  </si>
-  <si>
-    <t>-23.186901931651274</t>
-  </si>
-  <si>
-    <t>-23.19091808480649</t>
-  </si>
-  <si>
-    <t>-23.190757269849684</t>
-  </si>
-  <si>
-    <t>-47.5263787743818</t>
-  </si>
-  <si>
-    <t>-47.534338015802</t>
-  </si>
-  <si>
-    <t>-47.5225996398316</t>
-  </si>
-  <si>
-    <t>47.5227375278776</t>
-  </si>
-  <si>
-    <t>-47.51682094174</t>
-  </si>
-  <si>
-    <t>-47.516928972995</t>
-  </si>
-  <si>
-    <t>-47.5340111410767</t>
-  </si>
-  <si>
-    <t>-47.5240243825029</t>
-  </si>
-  <si>
-    <t>-47.5250422748088</t>
-  </si>
-  <si>
-    <t>-47.5314254510756</t>
-  </si>
-  <si>
-    <t>-47.515917747442</t>
-  </si>
-  <si>
-    <t>-47.5232865032656</t>
-  </si>
-  <si>
-    <t>-47.519705642399</t>
-  </si>
-  <si>
-    <t>-47.5180731167604</t>
-  </si>
-  <si>
-    <t>-47.5293023484329</t>
-  </si>
-  <si>
-    <t>-47.5251077160075</t>
-  </si>
-  <si>
-    <t>-47.5292935125141</t>
-  </si>
-  <si>
-    <t>-47.5298685574156</t>
-  </si>
-  <si>
-    <t>-47.5123700387919</t>
-  </si>
-  <si>
-    <t>-47.5167205021338</t>
-  </si>
-  <si>
-    <t>-47.5170042319663</t>
-  </si>
-  <si>
-    <t>-47.5342545172762</t>
-  </si>
-  <si>
-    <t>-47.5195070836455</t>
-  </si>
-  <si>
-    <t>-47.5346234971327</t>
-  </si>
-  <si>
-    <t>47.5145196876537</t>
-  </si>
-  <si>
-    <t>-47.5144912762476</t>
-  </si>
-  <si>
-    <t>-47.5196028039374</t>
-  </si>
-  <si>
-    <t>-47.519078430683</t>
-  </si>
-  <si>
-    <t>-47.5192975002428</t>
-  </si>
-  <si>
-    <t>-47.5302966596734</t>
-  </si>
-  <si>
-    <t>-47.5242662947295</t>
-  </si>
-  <si>
-    <t>-47.5181912375903</t>
-  </si>
-  <si>
-    <t>-47.5177608339474</t>
-  </si>
-  <si>
-    <t>-47.5400389590907</t>
-  </si>
-  <si>
-    <t>-47.5388700437508</t>
-  </si>
-  <si>
-    <t>-47.5287472191647</t>
-  </si>
-  <si>
-    <t>-47.5358272213167</t>
-  </si>
-  <si>
-    <t>-47.5162157188445</t>
-  </si>
-  <si>
-    <t>-47.516197535346</t>
-  </si>
-  <si>
-    <t>-47.5203916645845</t>
-  </si>
-  <si>
-    <t>-47.52219723795</t>
-  </si>
-  <si>
-    <t>-47.5225609265624</t>
-  </si>
-  <si>
-    <t>-47.5364676424758</t>
-  </si>
-  <si>
-    <t>-47.5327426592973</t>
-  </si>
-  <si>
-    <t>-47.5411952032668</t>
-  </si>
-  <si>
-    <t>-47.5337678112914</t>
-  </si>
-  <si>
-    <t>-47.5142452687394</t>
-  </si>
-  <si>
-    <t>-47.5239356377975</t>
-  </si>
-  <si>
-    <t>-47.5140364611751</t>
-  </si>
-  <si>
-    <t>-47.5230660324039</t>
-  </si>
-  <si>
-    <t>-47.5200590765088</t>
-  </si>
-  <si>
-    <t>-47.5177251662341</t>
-  </si>
-  <si>
-    <t>-47.5224484110567</t>
-  </si>
-  <si>
-    <t>-47.5267626307396</t>
-  </si>
-  <si>
-    <t>-47.5131202196735</t>
-  </si>
-  <si>
-    <t>-47.5215595510687</t>
-  </si>
-  <si>
-    <t>-47.5285157769129</t>
-  </si>
-  <si>
-    <t>-47.5264342422343</t>
-  </si>
-  <si>
-    <t>-47.5223039047247</t>
-  </si>
-  <si>
-    <t>-47.5277354473679</t>
-  </si>
-  <si>
-    <t>-47.5280087833709</t>
-  </si>
-  <si>
-    <t>-47.5336079130435</t>
-  </si>
-  <si>
-    <t>-47.5167120529191</t>
-  </si>
-  <si>
-    <t>-47.5166173976713</t>
-  </si>
-  <si>
-    <t>-47.5196839764104</t>
-  </si>
-  <si>
-    <t>-47.5161161558743</t>
-  </si>
-  <si>
-    <t>-47.5159222288911</t>
-  </si>
-  <si>
-    <t>-47.5290103146518</t>
-  </si>
-  <si>
-    <t>-47.5278966924626</t>
-  </si>
-  <si>
-    <t>47.519442512004</t>
-  </si>
-  <si>
-    <t>-47.5343305346631</t>
-  </si>
-  <si>
-    <t>47.5213149658731</t>
-  </si>
-  <si>
-    <t>-47.5287426902559</t>
   </si>
 </sst>
 </file>
@@ -795,8 +351,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,9 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,98 +688,98 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>153</v>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-23.224534982752601</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-47.519705642399003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>154</v>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-23.224034887207502</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-47.5195070836455</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>154</v>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-23.223626358065701</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-47.514036461175102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>155</v>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-23.223449788835499</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-47.523286503265602</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>156</v>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-23.222842219495998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-47.525042274808797</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>157</v>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-23.222571426169601</v>
+      </c>
+      <c r="D7" s="3">
+        <v>47.514519687653703</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>157</v>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-23.222571426169601</v>
+      </c>
+      <c r="D8" s="3">
+        <v>47.514519687653703</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,27 +787,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>158</v>
+        <v>68</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-23.222362241476599</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-47.516617397671297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>159</v>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-23.222279657959898</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-47.516712052919097</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,55 +815,55 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>160</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-23.221914887971501</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-47.516197535346002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>161</v>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-23.2218195086778</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-47.514491276247597</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>162</v>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-23.221664467150699</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-47.514245268739401</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>162</v>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-23.221664467150699</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-47.514245268739401</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,13 +871,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>163</v>
+        <v>74</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-23.221442691430699</v>
+      </c>
+      <c r="D15" s="3">
+        <v>47.519442512003998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,27 +885,27 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>164</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-23.221122248115901</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-47.516215718844499</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>165</v>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-23.220942830793302</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-47.517725166234101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,13 +913,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>166</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-23.2204958572209</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-47.5123700387919</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +927,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>167</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-23.220085783870299</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-47.518073116760398</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +941,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>168</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-23.2200437435671</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-47.515917747442003</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,13 +955,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-23.219892084923501</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-47.531425451075599</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,27 +969,27 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>170</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-23.219892084923501</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-47.531425451075599</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>170</v>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-23.218808951034699</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-47.517004231966297</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +997,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>170</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-23.218541939144899</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-47.516720502133801</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1011,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>171</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-23.218066451077</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-47.519078430683003</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,27 +1025,27 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>172</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-23.218066451077</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-47.519078430683003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>173</v>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-23.2178276550049</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-47.5192975002428</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,83 +1053,83 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>174</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-23.217521199809202</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-47.519602803937403</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>175</v>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-23.217521199809202</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-47.519602803937403</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>176</v>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-23.2174843151438</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-47.520059076508801</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>176</v>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-23.2174076862457</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-47.517760833947399</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>177</v>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-23.2172282277463</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-47.518191237590301</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>177</v>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-23.217106586150798</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-47.530296659673397</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,13 +1137,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>178</v>
+        <v>3</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-23.203445764246599</v>
+      </c>
+      <c r="D34" s="9">
+        <v>-47.526378774381797</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,13 +1151,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>179</v>
+        <v>17</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-23.2029667981774</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-47.5293023484329</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,41 +1165,41 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>179</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-23.202195867880299</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-47.522560926562399</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>180</v>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-23.202195867880299</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-47.522560926562399</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>180</v>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-23.2021269724506</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-47.522599639831597</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,41 +1207,41 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>181</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-23.201466594404501</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-47.529010314651799</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>182</v>
+      <c r="B40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-23.200860466765398</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-47.521559551068698</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>183</v>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-23.199530141866699</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-47.529868557415597</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +1249,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-23.199530141866699</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-47.529868557415597</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +1263,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>185</v>
+        <v>20</v>
+      </c>
+      <c r="C43" s="8">
+        <v>-23.199530141866699</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-47.529868557415597</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +1277,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>186</v>
+        <v>58</v>
+      </c>
+      <c r="C44" s="8">
+        <v>-23.198392650656501</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-47.526762630739597</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +1291,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>186</v>
+        <v>58</v>
+      </c>
+      <c r="C45" s="8">
+        <v>-23.198392650656501</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-47.526762630739597</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,13 +1305,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>187</v>
+        <v>70</v>
+      </c>
+      <c r="C46" s="8">
+        <v>-23.198118782740501</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-47.5161161558743</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,13 +1319,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>188</v>
+        <v>64</v>
+      </c>
+      <c r="C47" s="8">
+        <v>-23.197596616022999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-47.527735447367903</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,27 +1333,27 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>188</v>
+        <v>65</v>
+      </c>
+      <c r="C48" s="8">
+        <v>-23.1965907430694</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-47.5280087833709</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>189</v>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-23.195645382595998</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-47.516820941740001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,27 +1361,27 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>190</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="8">
+        <v>-23.195645382595998</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-47.516820941740001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>191</v>
+      <c r="B51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8">
+        <v>-23.195448602659301</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-47.519683976410398</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +1389,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>192</v>
+        <v>38</v>
+      </c>
+      <c r="C52" s="8">
+        <v>-23.194540728048601</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-47.5287472191647</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +1403,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
+      </c>
+      <c r="C53" s="8">
+        <v>-23.194540728048601</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-47.5287472191647</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,41 +1417,41 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>194</v>
+        <v>18</v>
+      </c>
+      <c r="C54" s="8">
+        <v>-23.1943519757945</v>
+      </c>
+      <c r="D54" s="3">
+        <v>-47.525107716007497</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>194</v>
+      <c r="B55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="8">
+        <v>-23.194101104258401</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-47.5159222288911</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>195</v>
+      <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="8">
+        <v>-23.193567537188201</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-47.524024382502901</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +1459,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>196</v>
+        <v>53</v>
+      </c>
+      <c r="C57" s="8">
+        <v>-23.193133032349799</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-47.523066032403896</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1473,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>197</v>
+        <v>8</v>
+      </c>
+      <c r="C58" s="8">
+        <v>-23.193087883997102</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-47.516928972994997</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +1487,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>198</v>
+        <v>24</v>
+      </c>
+      <c r="C59" s="8">
+        <v>-23.1929842349033</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-47.534254517276203</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,41 +1501,41 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="C60" s="8">
+        <v>-23.1929155104473</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-47.522303904724701</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>199</v>
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="8">
+        <v>-23.192863111420799</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-47.513120219673503</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>199</v>
+      <c r="B62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="8">
+        <v>-23.192863111420799</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-47.513120219673503</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,55 +1543,55 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>200</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="8">
+        <v>-23.192627486816299</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-47.526434242234302</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>201</v>
+      <c r="B64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="8">
+        <v>-23.191977292259701</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-47.5242662947295</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>202</v>
+      <c r="B65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="8">
+        <v>-23.191864918718</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-47.534338015802</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>203</v>
+      <c r="B66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="8">
+        <v>-23.191864918718</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-47.534338015802</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +1599,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>204</v>
+        <v>42</v>
+      </c>
+      <c r="C67" s="8">
+        <v>-23.191762120695898</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-47.520391664584501</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +1613,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>205</v>
+        <v>61</v>
+      </c>
+      <c r="C68" s="8">
+        <v>-23.191150903771401</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-47.528515776912897</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +1627,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>132</v>
+        <v>76</v>
+      </c>
+      <c r="C69" s="8">
+        <v>-23.190918084806398</v>
+      </c>
+      <c r="D69" s="3">
+        <v>47.521314965873103</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +1641,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>206</v>
+        <v>77</v>
+      </c>
+      <c r="C70" s="8">
+        <v>-23.190757269849598</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-47.528742690255903</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +1655,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>206</v>
+        <v>6</v>
+      </c>
+      <c r="C71" s="8">
+        <v>-23.190746120079201</v>
+      </c>
+      <c r="D71" s="3">
+        <v>47.522737527877602</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +1669,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>207</v>
+        <v>51</v>
+      </c>
+      <c r="C72" s="8">
+        <v>-23.190202878408801</v>
+      </c>
+      <c r="D72" s="3">
+        <v>-47.5239356377975</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,55 +1683,55 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>207</v>
+        <v>48</v>
+      </c>
+      <c r="C73" s="8">
+        <v>-23.1898666470724</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-47.533767811291398</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>208</v>
+      <c r="B74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="8">
+        <v>-23.1898666470724</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-47.533767811291398</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>209</v>
+      <c r="B75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="8">
+        <v>-23.189766087074801</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-47.535827221316701</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>210</v>
+      <c r="B76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="8">
+        <v>-23.189287548784101</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-47.536467642475799</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,13 +1739,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>211</v>
+        <v>73</v>
+      </c>
+      <c r="C77" s="8">
+        <v>-23.189235484686598</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-47.527896692462598</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,13 +1753,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>212</v>
+        <v>37</v>
+      </c>
+      <c r="C78" s="8">
+        <v>-23.1890470151288</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-47.538870043750798</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,41 +1767,41 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>213</v>
+        <v>43</v>
+      </c>
+      <c r="C79" s="8">
+        <v>-23.1876772404501</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-47.522197237950003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>214</v>
+      <c r="B80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="8">
+        <v>-23.1874654610384</v>
+      </c>
+      <c r="D80" s="3">
+        <v>-47.534623497132699</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" t="s">
-        <v>141</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>214</v>
+      <c r="B81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="8">
+        <v>-23.1874654610384</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-47.534623497132699</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,13 +1809,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>215</v>
+        <v>56</v>
+      </c>
+      <c r="C82" s="8">
+        <v>-23.187194508451299</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-47.5224484110567</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,27 +1823,27 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" t="s">
-        <v>143</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>216</v>
+        <v>57</v>
+      </c>
+      <c r="C83" s="8">
+        <v>-23.187113560899402</v>
+      </c>
+      <c r="D83" s="3">
+        <v>-47.522386754228997</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
-        <v>144</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>217</v>
+      <c r="B84" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="8">
+        <v>-23.1869019316512</v>
+      </c>
+      <c r="D84" s="3">
+        <v>-47.534330534663098</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +1851,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>218</v>
+        <v>75</v>
+      </c>
+      <c r="C85" s="8">
+        <v>-23.1869019316512</v>
+      </c>
+      <c r="D85" s="3">
+        <v>-47.534330534663098</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +1865,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>219</v>
+        <v>46</v>
+      </c>
+      <c r="C86" s="8">
+        <v>-23.1854442524271</v>
+      </c>
+      <c r="D86" s="3">
+        <v>-47.532742659297298</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,27 +1879,27 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" t="s">
-        <v>147</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="C87" s="8">
+        <v>-23.185001569258201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>-47.529293512514101</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>221</v>
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="8">
+        <v>-23.184729195748801</v>
+      </c>
+      <c r="D88" s="3">
+        <v>-47.534011141076697</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +1907,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>149</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>222</v>
+        <v>47</v>
+      </c>
+      <c r="C89" s="8">
+        <v>-23.184106979147899</v>
+      </c>
+      <c r="D89" s="3">
+        <v>-47.541195203266803</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,49 +1921,55 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>223</v>
+        <v>36</v>
+      </c>
+      <c r="C90" s="8">
+        <v>-23.1826729791491</v>
+      </c>
+      <c r="D90" s="3">
+        <v>-47.540038959090701</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
       <c r="B91" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>223</v>
+        <v>36</v>
+      </c>
+      <c r="C91" s="8">
+        <v>-23.1826729791491</v>
+      </c>
+      <c r="D91" s="3">
+        <v>-47.540038959090701</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
       <c r="B92" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>224</v>
+        <v>66</v>
+      </c>
+      <c r="C92" s="8">
+        <v>-23.180839622853199</v>
+      </c>
+      <c r="D92" s="3">
+        <v>-47.533607913043497</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
       <c r="B93" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>225</v>
+        <v>66</v>
+      </c>
+      <c r="C93" s="8">
+        <v>-23.180839622853199</v>
+      </c>
+      <c r="D93" s="3">
+        <v>-47.533607913043497</v>
       </c>
     </row>
   </sheetData>

--- a/Testes_Geoespaciais/dataset_DW.xlsx
+++ b/Testes_Geoespaciais/dataset_DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Estudos Academicos\Ciencia de Dados\Comunidade DS\Testes_Geoespaciais\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBFE61-65E4-46BD-AEA4-1B9CA8032590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B0E87-9066-44D0-97C2-94B5C04A78B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Endereco</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>R. Walter Castelucci, 16</t>
+  </si>
+  <si>
+    <t>Sítio</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -328,11 +331,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -356,6 +370,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,9 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1972,6 +1992,20 @@
         <v>-47.533607913043497</v>
       </c>
     </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="8">
+        <v>-23.215011559212599</v>
+      </c>
+      <c r="D94" s="8">
+        <v>-47.449326938691001</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:D93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testes_Geoespaciais/dataset_DW.xlsx
+++ b/Testes_Geoespaciais/dataset_DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Estudos Academicos\Ciencia de Dados\Comunidade DS\Testes_Geoespaciais\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41B0E87-9066-44D0-97C2-94B5C04A78B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733F2129-ABE6-4B20-8F2E-9DEDEB5B636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,8 +371,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testes_Geoespaciais/dataset_DW.xlsx
+++ b/Testes_Geoespaciais/dataset_DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Estudos Academicos\Ciencia de Dados\Comunidade DS\Testes_Geoespaciais\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02561240-7068-427A-9CD6-74E09EF07E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595FC93A-2A8F-42BA-A102-8C8B73CBD447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Dados_tratados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados_tratados!$B$1:$D$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados_tratados!$B$1:$D$128</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="133">
   <si>
     <t>Endereco</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>Descricao</t>
+  </si>
+  <si>
+    <t>Associação Monte Carmelo - Escritório</t>
   </si>
 </sst>
 </file>
@@ -589,37 +592,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -929,32 +922,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -962,16 +955,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>-23.224534982752601</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>-47.519705642399003</v>
       </c>
       <c r="E2" t="s">
@@ -979,16 +972,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>-23.224034887207502</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>-47.5195070836455</v>
       </c>
       <c r="E3" t="s">
@@ -996,16 +989,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>-23.223626358065701</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>-47.514036461175102</v>
       </c>
       <c r="E4" t="s">
@@ -1013,16 +1006,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>-23.223449788835499</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>-47.523286503265602</v>
       </c>
       <c r="E5" t="s">
@@ -1030,16 +1023,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>-23.222842219495998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>-47.525042274808797</v>
       </c>
       <c r="E6" t="s">
@@ -1047,16 +1040,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>-23.222571426169601</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E7" t="s">
@@ -1064,16 +1057,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>-23.222571426169601</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E8" t="s">
@@ -1081,16 +1074,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>-23.222362241476599</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>-47.516617397671297</v>
       </c>
       <c r="E9" t="s">
@@ -1098,16 +1091,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>-23.222279657959898</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="1">
         <v>-47.516712052919097</v>
       </c>
       <c r="E10" t="s">
@@ -1115,16 +1108,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>-23.221914887971501</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="1">
         <v>-47.516197535346002</v>
       </c>
       <c r="E11" t="s">
@@ -1132,16 +1125,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>-23.2218195086778</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="1">
         <v>-47.514491276247597</v>
       </c>
       <c r="E12" t="s">
@@ -1149,16 +1142,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>-23.221664467150699</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="1">
         <v>-47.514245268739401</v>
       </c>
       <c r="E13" t="s">
@@ -1166,16 +1159,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>-23.221664467150699</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="1">
         <v>-47.514245268739401</v>
       </c>
       <c r="E14" t="s">
@@ -1183,16 +1176,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>-23.221442691430699</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E15" t="s">
@@ -1200,16 +1193,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>-23.221122248115901</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="1">
         <v>-47.516215718844499</v>
       </c>
       <c r="E16" t="s">
@@ -1217,16 +1210,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>-23.220942830793302</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="1">
         <v>-47.517725166234101</v>
       </c>
       <c r="E17" t="s">
@@ -1234,16 +1227,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>-23.2204958572209</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="1">
         <v>-47.5123700387919</v>
       </c>
       <c r="E18" t="s">
@@ -1251,16 +1244,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>-23.220085783870299</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="1">
         <v>-47.518073116760398</v>
       </c>
       <c r="E19" t="s">
@@ -1268,16 +1261,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>-23.2200437435671</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="1">
         <v>-47.515917747442003</v>
       </c>
       <c r="E20" t="s">
@@ -1285,16 +1278,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>-23.219892084923501</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="1">
         <v>-47.531425451075599</v>
       </c>
       <c r="E21" t="s">
@@ -1302,16 +1295,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>-23.219892084923501</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="1">
         <v>-47.531425451075599</v>
       </c>
       <c r="E22" t="s">
@@ -1319,16 +1312,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>-23.218808951034699</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="1">
         <v>-47.517004231966297</v>
       </c>
       <c r="E23" t="s">
@@ -1336,16 +1329,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>-23.218541939144899</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="1">
         <v>-47.516720502133801</v>
       </c>
       <c r="E24" t="s">
@@ -1353,16 +1346,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>-23.218066451077</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="1">
         <v>-47.519078430683003</v>
       </c>
       <c r="E25" t="s">
@@ -1370,16 +1363,16 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>-23.218066451077</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="1">
         <v>-47.519078430683003</v>
       </c>
       <c r="E26" t="s">
@@ -1387,16 +1380,16 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>-23.2178276550049</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="1">
         <v>-47.5192975002428</v>
       </c>
       <c r="E27" t="s">
@@ -1404,16 +1397,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>-23.217521199809202</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="1">
         <v>-47.519602803937403</v>
       </c>
       <c r="E28" t="s">
@@ -1421,16 +1414,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>-23.217521199809202</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="1">
         <v>-47.519602803937403</v>
       </c>
       <c r="E29" t="s">
@@ -1438,16 +1431,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>-23.2174843151438</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="1">
         <v>-47.520059076508801</v>
       </c>
       <c r="E30" t="s">
@@ -1455,16 +1448,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>-23.2174076862457</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="1">
         <v>-47.517760833947399</v>
       </c>
       <c r="E31" t="s">
@@ -1472,16 +1465,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>-23.2172282277463</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="1">
         <v>-47.518191237590301</v>
       </c>
       <c r="E32" t="s">
@@ -1489,16 +1482,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>-23.217106586150798</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="1">
         <v>-47.530296659673397</v>
       </c>
       <c r="E33" t="s">
@@ -1506,16 +1499,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>-23.203445764246599</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>-47.526378774381797</v>
       </c>
       <c r="E34" t="s">
@@ -1523,16 +1516,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="7">
         <v>-23.2029667981774</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="1">
         <v>-47.5293023484329</v>
       </c>
       <c r="E35" t="s">
@@ -1540,16 +1533,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>-23.202195867880299</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="1">
         <v>-47.522560926562399</v>
       </c>
       <c r="E36" t="s">
@@ -1557,16 +1550,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>-23.202195867880299</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="1">
         <v>-47.522560926562399</v>
       </c>
       <c r="E37" t="s">
@@ -1574,16 +1567,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>-23.2021269724506</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="1">
         <v>-47.522599639831597</v>
       </c>
       <c r="E38" t="s">
@@ -1591,16 +1584,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>-23.201466594404501</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="1">
         <v>-47.529010314651799</v>
       </c>
       <c r="E39" t="s">
@@ -1608,16 +1601,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>-23.200860466765398</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="1">
         <v>-47.521559551068698</v>
       </c>
       <c r="E40" t="s">
@@ -1625,16 +1618,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>-23.199530141866699</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="1">
         <v>-47.529868557415597</v>
       </c>
       <c r="E41" t="s">
@@ -1642,16 +1635,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>-23.199530141866699</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="1">
         <v>-47.529868557415597</v>
       </c>
       <c r="E42" t="s">
@@ -1659,16 +1652,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>-23.199530141866699</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="1">
         <v>-47.529868557415597</v>
       </c>
       <c r="E43" t="s">
@@ -1676,16 +1669,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>-23.198392650656501</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="1">
         <v>-47.526762630739597</v>
       </c>
       <c r="E44" t="s">
@@ -1693,16 +1686,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>-23.198392650656501</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="1">
         <v>-47.526762630739597</v>
       </c>
       <c r="E45" t="s">
@@ -1710,16 +1703,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>-23.198118782740501</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="1">
         <v>-47.5161161558743</v>
       </c>
       <c r="E46" t="s">
@@ -1727,16 +1720,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>-23.197596616022999</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="1">
         <v>-47.527735447367903</v>
       </c>
       <c r="E47" t="s">
@@ -1744,16 +1737,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>-23.1965907430694</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="1">
         <v>-47.5280087833709</v>
       </c>
       <c r="E48" t="s">
@@ -1761,16 +1754,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>-23.195645382595998</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="1">
         <v>-47.516820941740001</v>
       </c>
       <c r="E49" t="s">
@@ -1778,16 +1771,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>-23.195645382595998</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="1">
         <v>-47.516820941740001</v>
       </c>
       <c r="E50" t="s">
@@ -1795,16 +1788,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>-23.195448602659301</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="1">
         <v>-47.519683976410398</v>
       </c>
       <c r="E51" t="s">
@@ -1812,16 +1805,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>-23.194540728048601</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="1">
         <v>-47.5287472191647</v>
       </c>
       <c r="E52" t="s">
@@ -1829,16 +1822,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>-23.194540728048601</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="1">
         <v>-47.5287472191647</v>
       </c>
       <c r="E53" t="s">
@@ -1846,16 +1839,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>-23.1943519757945</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="1">
         <v>-47.525107716007497</v>
       </c>
       <c r="E54" t="s">
@@ -1863,16 +1856,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>-23.194101104258401</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="1">
         <v>-47.5159222288911</v>
       </c>
       <c r="E55" t="s">
@@ -1880,16 +1873,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="7">
         <v>-23.193567537188201</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="1">
         <v>-47.524024382502901</v>
       </c>
       <c r="E56" t="s">
@@ -1897,16 +1890,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>-23.193133032349799</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="1">
         <v>-47.523066032403896</v>
       </c>
       <c r="E57" t="s">
@@ -1914,16 +1907,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="7">
         <v>-23.193087883997102</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="1">
         <v>-47.516928972994997</v>
       </c>
       <c r="E58" t="s">
@@ -1931,16 +1924,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="7">
         <v>-23.1929842349033</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="1">
         <v>-47.534254517276203</v>
       </c>
       <c r="E59" t="s">
@@ -1948,16 +1941,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="7">
         <v>-23.1929155104473</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="1">
         <v>-47.522303904724701</v>
       </c>
       <c r="E60" t="s">
@@ -1965,16 +1958,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="7">
         <v>-23.192863111420799</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="1">
         <v>-47.513120219673503</v>
       </c>
       <c r="E61" t="s">
@@ -1982,16 +1975,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>1</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="7">
         <v>-23.192863111420799</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="1">
         <v>-47.513120219673503</v>
       </c>
       <c r="E62" t="s">
@@ -1999,16 +1992,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>1</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="7">
         <v>-23.192627486816299</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="1">
         <v>-47.526434242234302</v>
       </c>
       <c r="E63" t="s">
@@ -2016,16 +2009,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>-23.191977292259701</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="1">
         <v>-47.5242662947295</v>
       </c>
       <c r="E64" t="s">
@@ -2033,16 +2026,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="7">
         <v>-23.191864918718</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="1">
         <v>-47.534338015802</v>
       </c>
       <c r="E65" t="s">
@@ -2050,16 +2043,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="7">
         <v>-23.191864918718</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="1">
         <v>-47.534338015802</v>
       </c>
       <c r="E66" t="s">
@@ -2067,16 +2060,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="7">
         <v>-23.191762120695898</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="1">
         <v>-47.520391664584501</v>
       </c>
       <c r="E67" t="s">
@@ -2084,16 +2077,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>1</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="7">
         <v>-23.191150903771401</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="1">
         <v>-47.528515776912897</v>
       </c>
       <c r="E68" t="s">
@@ -2101,16 +2094,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="7">
         <v>-23.190918084806398</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E69" t="s">
@@ -2118,16 +2111,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>1</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="7">
         <v>-23.190757269849598</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="1">
         <v>-47.528742690255903</v>
       </c>
       <c r="E70" t="s">
@@ -2135,16 +2128,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="2">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="7">
         <v>-23.190746120079201</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E71" t="s">
@@ -2152,16 +2145,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>1</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="2">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="7">
         <v>-23.190202878408801</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="1">
         <v>-47.5239356377975</v>
       </c>
       <c r="E72" t="s">
@@ -2169,16 +2162,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>1</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="7">
         <v>-23.1898666470724</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="1">
         <v>-47.533767811291398</v>
       </c>
       <c r="E73" t="s">
@@ -2186,16 +2179,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>1</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="7">
         <v>-23.1898666470724</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="1">
         <v>-47.533767811291398</v>
       </c>
       <c r="E74" t="s">
@@ -2203,16 +2196,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>1</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="7">
         <v>-23.189766087074801</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="1">
         <v>-47.535827221316701</v>
       </c>
       <c r="E75" t="s">
@@ -2220,16 +2213,16 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>1</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="2">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="7">
         <v>-23.189287548784101</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="1">
         <v>-47.536467642475799</v>
       </c>
       <c r="E76" t="s">
@@ -2237,16 +2230,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>1</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="7">
         <v>-23.189235484686598</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="1">
         <v>-47.527896692462598</v>
       </c>
       <c r="E77" t="s">
@@ -2254,16 +2247,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>1</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="2">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="7">
         <v>-23.1890470151288</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="1">
         <v>-47.538870043750798</v>
       </c>
       <c r="E78" t="s">
@@ -2271,16 +2264,16 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>1</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="2">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="7">
         <v>-23.1876772404501</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="1">
         <v>-47.522197237950003</v>
       </c>
       <c r="E79" t="s">
@@ -2288,16 +2281,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>1</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="2">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="7">
         <v>-23.1874654610384</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="1">
         <v>-47.534623497132699</v>
       </c>
       <c r="E80" t="s">
@@ -2305,16 +2298,16 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>1</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="2">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="7">
         <v>-23.1874654610384</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="1">
         <v>-47.534623497132699</v>
       </c>
       <c r="E81" t="s">
@@ -2322,16 +2315,16 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>1</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="2">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="7">
         <v>-23.187194508451299</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="1">
         <v>-47.5224484110567</v>
       </c>
       <c r="E82" t="s">
@@ -2339,16 +2332,16 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>1</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="7">
         <v>-23.187113560899402</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="1">
         <v>-47.522386754228997</v>
       </c>
       <c r="E83" t="s">
@@ -2356,16 +2349,16 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>1</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="2">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
         <v>75</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="7">
         <v>-23.1869019316512</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="1">
         <v>-47.534330534663098</v>
       </c>
       <c r="E84" t="s">
@@ -2373,16 +2366,16 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>1</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="2">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="7">
         <v>-23.1869019316512</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="1">
         <v>-47.534330534663098</v>
       </c>
       <c r="E85" t="s">
@@ -2390,16 +2383,16 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>1</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="2">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
         <v>46</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="7">
         <v>-23.1854442524271</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="1">
         <v>-47.532742659297298</v>
       </c>
       <c r="E86" t="s">
@@ -2407,16 +2400,16 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="A87" s="2">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="7">
         <v>-23.185001569258201</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="1">
         <v>-47.529293512514101</v>
       </c>
       <c r="E87" t="s">
@@ -2424,16 +2417,16 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>1</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="2">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="7">
         <v>-23.184729195748801</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="1">
         <v>-47.534011141076697</v>
       </c>
       <c r="E88" t="s">
@@ -2441,16 +2434,16 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="7">
         <v>-23.184106979147899</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="1">
         <v>-47.541195203266803</v>
       </c>
       <c r="E89" t="s">
@@ -2458,16 +2451,16 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>1</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="A90" s="2">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="7">
         <v>-23.1826729791491</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="1">
         <v>-47.540038959090701</v>
       </c>
       <c r="E90" t="s">
@@ -2475,16 +2468,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>1</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="A91" s="2">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="7">
         <v>-23.1826729791491</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="1">
         <v>-47.540038959090701</v>
       </c>
       <c r="E91" t="s">
@@ -2492,16 +2485,16 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>1</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="A92" s="2">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="7">
         <v>-23.180839622853199</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="1">
         <v>-47.533607913043497</v>
       </c>
       <c r="E92" t="s">
@@ -2509,16 +2502,16 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>1</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="7">
         <v>-23.180839622853199</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="1">
         <v>-47.533607913043497</v>
       </c>
       <c r="E93" t="s">
@@ -2526,16 +2519,16 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="2">
         <v>2</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="8">
         <v>-23.189249790014401</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="1">
         <v>-47.4659242567229</v>
       </c>
       <c r="E94" t="s">
@@ -2543,16 +2536,16 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+      <c r="A95" s="2">
         <v>2</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="8">
         <v>-23.1959540439872</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="1">
         <v>-47.519147340709402</v>
       </c>
       <c r="E95" t="s">
@@ -2560,16 +2553,16 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="2">
         <v>2</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="8">
         <v>-23.213633294720399</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="1">
         <v>-47.511155403145501</v>
       </c>
       <c r="E96" t="s">
@@ -2577,16 +2570,16 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+      <c r="A97" s="2">
         <v>2</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="8">
         <v>-23.218152545186001</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="1">
         <v>-47.517270840924397</v>
       </c>
       <c r="E97" t="s">
@@ -2594,16 +2587,16 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="2">
         <v>2</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="8">
         <v>-23.228610577501598</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="1">
         <v>-47.517866054137599</v>
       </c>
       <c r="E98" t="s">
@@ -2611,16 +2604,16 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="A99" s="2">
         <v>2</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="8">
         <v>-23.209227452325599</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="1">
         <v>-47.522419788572201</v>
       </c>
       <c r="E99" t="s">
@@ -2628,16 +2621,16 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="A100" s="2">
         <v>2</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="8">
         <v>-23.202922568346398</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="1">
         <v>-47.525198226117197</v>
       </c>
       <c r="E100" t="s">
@@ -2645,16 +2638,16 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+      <c r="A101" s="2">
         <v>2</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="8">
         <v>-23.204442260177199</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="1">
         <v>-47.524568005728199</v>
       </c>
       <c r="E101" t="s">
@@ -2662,16 +2655,16 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+      <c r="A102" s="2">
         <v>2</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="8">
         <v>-23.192639998392298</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="1">
         <v>-47.526433919787998</v>
       </c>
       <c r="E102" t="s">
@@ -2679,16 +2672,16 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+      <c r="A103" s="2">
         <v>2</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>87</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="8">
         <v>-23.191658319242599</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="1">
         <v>-47.525695276643503</v>
       </c>
       <c r="E103" t="s">
@@ -2696,16 +2689,16 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="A104" s="2">
         <v>2</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>88</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="8">
         <v>-23.188068479386001</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="1">
         <v>-47.534279002970699</v>
       </c>
       <c r="E104" t="s">
@@ -2713,16 +2706,16 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="A105" s="2">
         <v>2</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>89</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="8">
         <v>-23.183028598377899</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="1">
         <v>-47.539685551060501</v>
       </c>
       <c r="E105" t="s">
@@ -2730,16 +2723,16 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+      <c r="A106" s="2">
         <v>2</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>90</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="8">
         <v>-23.214020000000001</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="1">
         <v>-47.518300000000004</v>
       </c>
       <c r="E106" t="s">
@@ -2747,364 +2740,381 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>3</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="7">
         <v>-23.215011559212599</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>-47.449326938691001</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>3</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="7">
+        <v>-23.214595835039098</v>
+      </c>
+      <c r="D108" s="3">
+        <v>-47.525457587804098</v>
+      </c>
+      <c r="E108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C109" s="8">
         <v>-23.199265140609</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D109" s="1">
         <v>-47.528274980843101</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E109" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>3</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C110" s="8">
         <v>-23.213683343114901</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D110" s="1">
         <v>-47.509017327536299</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>3</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B111" t="s">
         <v>93</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C111" s="8">
         <v>-23.2144368238543</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D111" s="1">
         <v>-47.510410744343403</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>3</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B112" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C112" s="8">
         <v>-23.210781304265701</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D112" s="1">
         <v>-47.520735111871304</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
         <v>3</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" t="s">
         <v>95</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C113" s="8">
         <v>-23.211775871813298</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D113" s="1">
         <v>-47.5221336055439</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E113" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
         <v>3</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C114" s="8">
         <v>-23.220989928586999</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D114" s="1">
         <v>-47.518577803119797</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E114" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>3</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B115" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C115" s="8">
         <v>-23.231678207740099</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D115" s="1">
         <v>-47.522792564495496</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E115" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>3</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B116" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C116" s="8">
         <v>-23.229953262247999</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D116" s="1">
         <v>-47.524965149151598</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E116" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>3</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C117" s="8">
         <v>-23.198887082279001</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D117" s="1">
         <v>-47.524769570815799</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E117" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C118" s="8">
         <v>-23.198775413674099</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D118" s="1">
         <v>-47.521799274284099</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E118" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>3</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B119" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C119" s="8">
         <v>-23.193975983587698</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>-47.520390633808503</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E119" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
         <v>3</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C120" s="8">
         <v>-23.19370267048</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>-47.526683807352498</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E120" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C121" s="8">
         <v>-23.185613344444601</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>-47.536797001268603</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E121" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>3</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C122" s="8">
         <v>-23.187567392554499</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D122" s="1">
         <v>-47.5330892607927</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E122" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="8">
+    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>4</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B123" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C123" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="8">
+    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>4</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B124" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C124" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E124" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="8">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
         <v>4</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B125" t="s">
         <v>111</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C125" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E125" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="8">
+    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>4</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" t="s">
         <v>112</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C126" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E126" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="8">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
         <v>4</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B127" t="s">
         <v>113</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C127" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E127" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>4</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" t="s">
         <v>114</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C128" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E128" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D127" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:D128" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>